--- a/Data Collection/Authors/Zora del Buono/articles_Buono_Jan_1.xlsx
+++ b/Data Collection/Authors/Zora del Buono/articles_Buono_Jan_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Zora del Buono/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_578CE587690FABED8F7C99EDFA26E0B256049150" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A522E184-9C7F-4A20-88D3-C7E06282A0AE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>title</t>
   </si>
@@ -23,9 +29,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>datetime</t>
   </si>
   <si>
     <t>desc</t>
@@ -64,12 +67,316 @@
 Das ist der Beipacktext der Lesewelt, der Nebenwirkungen schon vor der Anwendung erzeugt: Es schwindelt einem vor lauter Geschwurbel, vor der «existenziellen Wucht», die das neue Gedruckte wieder einmal erzeugt.
 Und das ist oft auch gut so.</t>
   </si>
+  <si>
+    <t>Architektin und Autorin Zora del Buono - "Raus ins Leben ...</t>
+  </si>
+  <si>
+    <t>Deutschlandfunk Kultur</t>
+  </si>
+  <si>
+    <t>Zora del Buono entstammt einer „Unglücksfamilie“. Davon war die Schweizer Architektin und Autorin lange ebenso überzeugt wie ihre italienische Verwandtschaft.</t>
+  </si>
+  <si>
+    <t>https://www.deutschlandfunkkultur.de/architektin-und-autorin-zora-del-buono-raus-ins-leben.970.de.html?dram:article_id=491929</t>
+  </si>
+  <si>
+    <t>Architektin und Autorin Zora del Buono "Raus ins Leben.
+Er ist damals der zweite Unfalltote in der Familie del Buono, aber nicht der letzte.
+"Es gab diese Häufung von tödlichen Autounfällen bei uns", erzählt Zora del Buono: "Das schwebte natürlich immer über uns."
+Zora del Buono hat sich für Letzteres entschieden: "Raus ins Leben.
+Erinnerungen an eine "Marschallin"Der Buchtitel, angelehnt an den langjährigen jugoslawischen Diktator Marschall Tito, den die Großmutter sehr verehrte, ist dabei wohlgewählt:"Meine Großmutter war herrisch, sie war gebieterisch.</t>
+  </si>
+  <si>
+    <t>Talksendung «Persönlich» - Apotheker Silvio Ballinari und ...</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>Zora del Buono hatte weder eine spezielle Beziehung zum Meer, noch hatte sie Erfahrung im Schreiben. Nach einem «Crash-Schreibkurs» ging alles wie am ...</t>
+  </si>
+  <si>
+    <t>https://www.srf.ch/radio-srf-1/persoenlich/talksendung-persoenlich-apotheker-silvio-ballinari-und-schriftstellerin-zora-del-buono</t>
+  </si>
+  <si>
+    <t>Bei Dani Fohrler zu Gast waren zwei Menschen, die schon vieles angepackt haben im Leben: Schriftstellerin Zora del Buono und Apotheker Silvio Ballinari.
+Zora del Buono, SchriftstellerinZum Schreiben fand die ehemalige Architektin und Bauleiterin Zora del Buono eigentlich zufällig.
+Zora del Buono hatte weder eine spezielle Beziehung zum Meer, noch hatte sie Erfahrung im Schreiben.
+Bis heute ist Berlin die zweite Heimat von Zora del Buono.
+Die SRF-Sendung «52 beste Bücher» über «Die Marschallin» von Zora del Buono können Sie sich hier anhören.</t>
+  </si>
+  <si>
+    <t>europa:westfalen startet mit Literaturveranstaltungen</t>
+  </si>
+  <si>
+    <t>Westfalium</t>
+  </si>
+  <si>
+    <t>... Lyrikbänden und Sachbüchern zum Thema „Europa“, darunter Mathijs Deen, Zora Del Buono, Sandra Gugić, Wolf Harlander, Navid Kermani , Carmen Korn, ...</t>
+  </si>
+  <si>
+    <t>https://westfalium.de/2021/02/11/europawestfalen-startet-mit-literaturveranstaltungen/</t>
+  </si>
+  <si>
+    <t>europa:westfalen startet mit Literaturveranstaltungen: Reihe bietet mehr als 60 Literaturveranstaltungen in ganz Westfalen und Lippe.
+literaturland westfalen, das Netzwerk der literarischen Akteure Westfalens, führt planmäßig ab März ein neues gemeinsames Festival unter dem Titel europa:westfalen durch.
+Vorsitzender des Westfälischen Literaturbüros in Unna e. V., das die Netzwerkarbeit und so auch das Festival federführend koordiniert.
+Für Dr. Barbara Rüschoff-Parzinger, Kulturdezernentin des Landschaftsverbands Westfalen-Lippe, der das Festival über seine Kulturstiftung ebenfalls großzügig unterstützt, „beweist das literaturland westfalen mit europa:westfalen wieder einmal, dass die westfälische Literaturszene regional verortet, aber zugleich hervorragend international vernetzt ist.
+Regionale, nationale und internationale Autorinnen und Autoren treffen hier aufeinander und schauen von Westfalen aus auf ganz Europa.“</t>
+  </si>
+  <si>
+    <t>6 Balkan-Autorinnen erzählen - «Ich werde meinem Land nie entkommen können»</t>
+  </si>
+  <si>
+    <t>Tages-Anzeiger</t>
+  </si>
+  <si>
+    <t>Warten ist die Hölle – in Damaskus und in Zürich. Aktualisiert · Die Romancière Zora del Buono in ihrer Heimatstadt Zürich. In ihrer Wahlheimat Berlin sei jetzt ...</t>
+  </si>
+  <si>
+    <t>https://www.tagesanzeiger.ch/ich-werde-meinem-land-nie-entkommen-koennen-643662405848</t>
+  </si>
+  <si>
+    <t>6 Balkan-Autorinnen erzählen – «Ich werde meinem Land nie entkommen können» Wie schlagen sie Brücken nach dem Krieg?
+Es sind kleine Dinge, die für mich ausmachen, dass ich mich zu Hause fühle – Leute, die wissen, wie man meinen Namen ausspricht.
+In diesen Momenten fühle ich mich, als ob ich eher nach Deutschland gehöre und nicht nach Bosnien.
+Als ich zum ersten Mal in New York war und auf die Strasse trat, fühlte ich mich, als ob ich mein ganzes Leben ein New Yorker gewesen wäre.
+Heute schlägt die Kultur Brücken über die Gräben, die der Krieg hinterlassen hat.</t>
+  </si>
+  <si>
+    <t>Claudia Durastanti und ihr Roman "Die Fremde" - "Meine ...</t>
+  </si>
+  <si>
+    <t>11 Mar 2021</t>
+  </si>
+  <si>
+    <t>(Deutschlandfunk, Kalenderblatt, 08.01.2021). Zora del Buono: „Die Marschallin“ – Politik, Patienten, Palaver (Deutschlandfunk, Büchermarkt, 27.11.2020).</t>
+  </si>
+  <si>
+    <t>https://www.deutschlandfunkkultur.de/claudia-durastanti-und-ihr-roman-die-fremde-meine.1270.de.html?dram:article_id=493889</t>
+  </si>
+  <si>
+    <t>Claudia Durastanti und ihr Roman "Die Fremde" "Meine gehörlose Mutter ist wie eine Romanfigur"Claudia Durastanti im Gespräch mit Joachim SchollClaudia Durastanti, Jahrgang 1984, ist in New York geboren und kam als kleines Mädchen nach Italien.
+Weil die Mutter als Gehörlose anders sprach, hielt man sie in dem kleinen Ort automatisch für eine "Fremde", eine Ausländerin.
+Daraus machte sich die Mutter einen Spaß und erfand sich selbst neu, sie veräppelte die Leute und erzählte ausgedachte Geschichten.
+"Meine Mutter war eine unabhängige Frau, sie war eine Feministin, sie war Exzentrikerin und sie hat viel getrunken", sagt Durastanti.
+Hinzu kam Wut, dass die Mutter sich offenbar nicht so akzeptieren konnte, wie sie auf die Welt gekommen war.</t>
+  </si>
+  <si>
+    <t>Schriftstellerin Lana Bastisic: Du musst bei den Besten klauen</t>
+  </si>
+  <si>
+    <t>Neue Zürcher Zeitung AG, Schweiz</t>
+  </si>
+  <si>
+    <t>6 Mar 2021</t>
+  </si>
+  <si>
+    <t>Die Schweizer Autorin Zora del Buono erzählt in ihrem packenden Roman «Die Marschallin» die Geschichte ihrer verzweigten Familie über drei Generationen.</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/kultur/schriftstellerin-lana-bastisic-du-musst-bei-den-besten-klauen-ld.1605177</t>
+  </si>
+  <si>
+    <t>«Du musst bei den Besten klauen» Lana Bastašić erzählt die widersprüchliche Geschichte des Balkans als abenteuerliche Reise – und macht damit Furore.
+Die bosnische Autorin lebt und schreibt derzeit in Zürich.
+Wenn sie nicht schreibt, erwandert sie die Stadt: Die Schriftstellerin Lana Bastašić am 28.
+Von der ersten Klasse an drückten sie die gleiche Schulbank; sie haben als Teenager am selben Tag unter demselben Baum ihre Jungfräulichkeit verloren und später zusammen Literatur studiert.
+Dann aber sind sie sich abhanden gekommen: zwölf Jahre Funkstille!</t>
+  </si>
+  <si>
+    <t>Was kommt: Zora del Buono und Sandra Hoffmann reden über Stoffe</t>
+  </si>
+  <si>
+    <t>Berliner Zeitung</t>
+  </si>
+  <si>
+    <t>Woraus besteht die Gegenwartsliteratur?“, steht als Frage über dem Programmeintrag vom Mittwoch im Literarischen Colloquium Berlin (LCB). Zora del Buono ...</t>
+  </si>
+  <si>
+    <t>https://www.berliner-zeitung.de/kultur-vergnuegen/literatur/was-kommt-zora-del-buono-und-sandra-hoffmann-reden-ueber-stoffe-li.148852</t>
+  </si>
+  <si>
+    <t>Zora del Buono und Sandra Hoffmann reden über „Pyrit“ und „Erbe, immateriell“.
+Die beiden Autorinnen kennen sich bislang noch nicht persönlich, umso mehr freue ich mich auf die Begegnung am Mittwoch im LCB.
+Alle Beteiligten schicken einen kurzen Text und ein Foto zu einem Stoff, der mit ihrem Schreiben in Zusammenhang steht.
+Diesmal finde ich sehr schön, wie die beiden kurzen Essays, die auf der Website des LCB zu finden sind, miteinander korrespondieren.
+Es geht auch um Schuld und Scham und darum, was das für das Erzählen bedeutet.</t>
+  </si>
+  <si>
+    <t>Hidden-Art-Bewegung: Ganz nebenbei kein Geld verdienen</t>
+  </si>
+  <si>
+    <t>Plattenfirma 365XX: Ein „safe space“ für Frauen in der Musik · Bücherfrage der Woche. Was kommt: Zora del Buono und Sandra Hoffmann reden über Stoffe ...</t>
+  </si>
+  <si>
+    <t>https://www.berliner-zeitung.de/kultur-vergnuegen/hidden-art-bewegung-ganz-nebenbei-kein-geld-verdienen-li.146716</t>
+  </si>
+  <si>
+    <t>Werden Sie ein Teil davon!
+Den Heiko kennen Sie wahrscheinlich nicht, aber der ist Künstler.
+Sie werden es nicht finden.
+Und das war ja auch Konzept.
+Der Heiko ist inzwischen Grundschullehrer, aber er hat immer noch eine Künstlerhomepage und selbst auf dieser Homepage ist das Erfurter Stück – es hat den fantastischen Titel „Eher fort (Kanada“) – nur ganz versteckt gelistet.</t>
+  </si>
+  <si>
+    <t>Frauen in der Architektur - Kunsthistorikerin: "Die Vorbilder ...</t>
+  </si>
+  <si>
+    <t>Dlf</t>
+  </si>
+  <si>
+    <t>Architektin und Autorin Zora del Buono „Raus ins Leben. Gucken, was ist. Immer weiter!“ Architektin Margarete Schütte-Lihotzky · Frauen in der Architektur „Zaha ...</t>
+  </si>
+  <si>
+    <t>https://www.deutschlandfunk.de/frauen-in-der-architektur-kunsthistorikerin-die-vorbilder.807.de.html?dram:article_id=494521</t>
+  </si>
+  <si>
+    <t>Frauen seien in der Architektur unterrepräsentiert, sagt die Kunsthistorikerin Ursula Schwitalla.
+Und die würden Mut machen.
+Truus Schröder habe in Utrecht Wohnungen für alleinerziehende Frauen geplant, die Care-Rolle der Frauen schläge durch.
+Weltweite VernetzungEs gäbe mittlerweile eine mutmachende Netzverbindung von Architektinnen, die auf Online-Plattformen sichtbar würden, zum Beispiel in Italien "RebelArchitette", die eine Weltkarte mit Architekten schüfen.
+Die Bedeutung von Frauen müsse durch Netzwerke betont werden, Frauen eingeladen werden.</t>
+  </si>
+  <si>
+    <t>16. Thuner Literaturfestival</t>
+  </si>
+  <si>
+    <t>Jungfrau Zeitung</t>
+  </si>
+  <si>
+    <t>Mit dabei sind bei der diesjährigen Ausgabe Monika Helfer, Sabine Scholl, Ann Cotten, Zora del Buono, Matto Kämpf, Levin Westermann und viele mehr!</t>
+  </si>
+  <si>
+    <t>https://www.jungfrauzeitung.ch/artikel/189209/</t>
+  </si>
+  <si>
+    <t>März 2021189209In welcher Form das «Literaare» stattfindet ist noch unklar.
+Oder wie es die Veranstalter ausdrücken: «Wir ziehen es durch!».
+Auch für «Literaare» sei noch ungewiss, in welcher Form das 16.
+Thuner Literaturfestival stattfinden werde.
+Gewiss sei nur: «Wir ziehen es durch – jetzt erst recht!</t>
+  </si>
+  <si>
+    <t>Verena Stefan: "Ein Riss im Stoff des Lebens" - Lose Fäden ...</t>
+  </si>
+  <si>
+    <t>Zum Tod von Verena Stefan – Kult-Autorin der Frauenbewegung (Deutschlandfunk Kultur, Kompressor, 01.12.2017). Architektin und Autorin Zora del Buono ...</t>
+  </si>
+  <si>
+    <t>https://www.deutschlandfunkkultur.de/verena-stefan-ein-riss-im-stoff-des-lebens-lose-faeden-neu.950.de.html?dram:article_id=494639</t>
+  </si>
+  <si>
+    <t>Verena Stefan: "Ein Riss im Stoff des Lebens" Lose Fäden, neu verwebtVon Susanne BilligStoisch-sanfte Hartnäckigkeit: "Ein Riss im Stoff des Lebens" ist Verena Stefans letztes Buch.
+Bescheidene Zurückhaltung"Ein Riss im Stoff des Lebens" heißt das letzte Buch von Verena Stefan.
+Immer wieder zitiert sie Gedichte, atmet sie ein und aus.
+Mit Licht meine ich, dass wir uns aufwärts in den riesigen Himmel fallen lassen und im unablässigen Strom des Lichts mitschwimmen."
+Verena Stefan: "Ein Riss im Stoff des Lebens"Aus dem Englischen übersetzt von Anke Caroline BurgerNagel und Kimche, Zürich 2021240 Seiten, 22 Euro</t>
+  </si>
+  <si>
+    <t>Kunst - Wie der Maler Rudolf Maeglin den Wandel des Basler Stadtbildes dokumentiert hat</t>
+  </si>
+  <si>
+    <t>bz Basel</t>
+  </si>
+  <si>
+    <t>Die Buchtexte (Alain Claude Sulzer, Emanuel Christ, Reto Thüring und Zora del Buono) versuchen, sich dem Werk und der komplexen Persönlichkeit des ...</t>
+  </si>
+  <si>
+    <t>https://www.bzbasel.ch/basel/kunst-wie-der-maler-rudolf-maeglin-den-wandel-des-basler-stadtbildes-dokumentiert-hat-ld.2116428</t>
+  </si>
+  <si>
+    <t>Kunst Wie der Maler Rudolf Maeglin den Wandel des Basler Stadtbildes dokumentiert hat Zum 50.
+Dann zog er sich als 44-Jähriger zeitlebens in sein Atelier in Kleinhüningen zurück.
+Gerüste, Baukräne und GaswerkeMaeglin war hierzulande einer der wenigen Maler, die sich fast ausschliesslich der Arbeitswelt widmeten.
+Seine grossen Bildthemen waren zunächst die riesigen Baustellen und die stickigen Fabrikhallen, Hochhäuser und Hafenanlagen.
+Da wird auch klar: Mit Maeglins Bildern lassen sich die baulichen Veränderungen des Basler Stadtbilds zwischen 1930 und 1960 Revue passieren.</t>
+  </si>
+  <si>
+    <t>Literaare-Festival in Thun - «Wir wissen nur: Wir ziehen es durch!»</t>
+  </si>
+  <si>
+    <t>Thuner Tagblatt</t>
+  </si>
+  <si>
+    <t>Mit dabei sind am Festival Sabine Scholl, Ann Cotten, Zora del Buono, Matto Kämpf, Levin Westermann und viele mehr. Informationen zur Art der Durchführung ...</t>
+  </si>
+  <si>
+    <t>https://www.thunertagblatt.ch/wir-wissen-nur-wir-ziehen-es-durch-118265724690</t>
+  </si>
+  <si>
+    <t>Literaare-Festival in Thun – «Wir wissen nur: Wir ziehen es durch!» Die genaue Form ist noch unklar, aber Literaare findet statt – und zwar vom 28. bis zum 30.
+Eine Österreicherin eröffnet das Thuner Literaturfestival.
+Wir alle kennen sie und haben sie schon zu oft gelesen», schreiben die Organisatorinnen von Literaare in einer Medienmitteilung.
+«Wir wissen nur: Wir ziehen es durch – jetzt erst recht!» Sei es mit Publikum oder als reines Audio-Festival, Literaare werde am letzten Maiwochenende Literatur eine Bühne geben.
+«Wir haben wiederum Autorinnen und Autoren nach Thun eingeladen, die uns besonders begeistert haben und deren Texte uns inspirierten», heisst es in der Mitteilung weiter.</t>
+  </si>
+  <si>
+    <t>Aktuelle Werkschau schweizerischen Literaturschaffens ist politisch</t>
+  </si>
+  <si>
+    <t>Südostschweiz</t>
+  </si>
+  <si>
+    <t>... Titel «Kunst trifft Politik» sollen Zora del Buono mit der Grünen-Politikerin Regula Rytz sowie Annette Hug mit Mitte-Parteipräsident Gerhard Pfister diskutieren.</t>
+  </si>
+  <si>
+    <t>https://www.suedostschweiz.ch/kultur-musik/2021-04-14/aktuelle-werkschau-schweizerischen-literaturschaffens-ist-politisch</t>
+  </si>
+  <si>
+    <t>Als «zentrales Anliegen» bezeichnen die Verantwortlichen der Solothurner Literaturtage «die differenzierte Auseinandersetzung mit gesellschaftspolitischen Fragen».
+Elisabeth Bronfen, Anglistikprofessorin in Zürich, wird mit dem Autor Jonas Lüscher und der Autorin Marina Stepanova aus Russland sowie mit dem Politologen Nanad Stojanovic über Populismus diskutieren.
+Eingeladen an die aktuelle Ausgabe sind die Illustratorin Simone F. Baumann und der Illustrator Jan Baumann.
+Denn: «Kultur hat ihren Preis.»Bereits im letzten Jahr war Landolf, damals noch unter der Geschäftsführung von Reina Gehrig, an der Organisation der Solothurner Literaturtage beteiligt.
+Ausgabe der Solothurner Literaturtage finde vom 14. bis 16.</t>
+  </si>
+  <si>
+    <t>Rudolf Maeglin und die Schönheit der Baustelle ...</t>
+  </si>
+  <si>
+    <t>Architektur Basel</t>
+  </si>
+  <si>
+    <t>Tatsächlich sind Vergleiche mit Piero della Francesca oder auch Raffael gar nicht so ... Texte von Zora del Buono, Emanuel Christ, Alain Claude Sulzer, Reto ...</t>
+  </si>
+  <si>
+    <t>https://architekturbasel.ch/rudolf-maeglin-und-die-schoenheit-der-baustelle/</t>
+  </si>
+  <si>
+    <t>Die anderen vier Handwerker sieht man nicht sofort, sie sind in der Architektur der Baustelle geradezu versteckt: Sie sind bei der mit Gerüsten bestückten Schmalfassade des linken Neubaukörpers platziert.
+Die Architektur der abgebildeten Gebäude und die der Bildkomposition sind an dieser Stelle in Übereinstimmung gebracht.
+Die Schönheit der BaustelleZu dieser feierlichen Inszenierung der architektonischen Schönheit der Baustelle trägt auch die Bildkomposition bei.
+Maeglin ist kein Propagandamaler, der den Aufbruch und den Fortschritt feiert.
+Und das ist vielleicht das Wunderbarste an Maeglins Baustellen: In ihrer positiven und gleichzeitig ruhigen und besonnenen Schönheit führen sie uns die zeitliche Grundbedingung der Architektur vor Augen: Die Zukunft von damals ist die Vergangenheit von heute.</t>
+  </si>
+  <si>
+    <t>Literatur trifft Politik - Regula Rytz und Gerhard Pfister verraten ihre Lieblingsromane und treten an den Solothurner Literaturtagen auf</t>
+  </si>
+  <si>
+    <t>St. Galler Tagblatt</t>
+  </si>
+  <si>
+    <t>Am Freitag wird sie mit der Schrifstellerin Zora del Buono diskutieren. Anthony Anex / KEYSTONE. Gibt es ein Buch, das Ihr Leben verändert hat? Regula Rytz: ...</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/kultur/literatur-trifft-politik-regula-rytz-und-gerhard-pfister-verraten-ihre-lieblingsromane-und-treten-an-den-solothurner-literaturtagen-auf-ld.2135455</t>
+  </si>
+  <si>
+    <t>Literatur trifft Politik Regula Rytz und Gerhard Pfister verraten ihre Lieblingsromane und treten an den Solothurner Literaturtagen auf Sie liebt historische Romane, er redet als Romanfigur sogar mit dem Teufel.
+Am Freitag wird sie mit der Schrifstellerin Zora del Buono diskutieren.
+Für mich ist seit damals klar, dass ich mich neben dem Natur- und Klimaschutz immer auch für Menschenwürde und Gerechtigkeit einsetzen werde.
+Gerne würde ich mit ihr darüber reden, wie Wunden verheilen und aus Zerstörung wieder Vertrauen und Stabilität wachsen kann.
+Die lehrten mich, dass der Text eines Autors immer eigene Bedeutungen schafft, die der Autor nicht im Sinne hatte.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,24 +439,41 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,7 +515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +547,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +599,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,14 +792,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,40 +823,456 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44238</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44253</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44299.465636574074</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44299.465636574074</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44299.465636574074</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44299.465636574074</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44299.465636574074</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44299.465636574074</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44299.465636574074</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44299.465980939603</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44299.465980962712</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44327.46670138889</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{11BFD6CF-62E7-4DAC-8195-19BC9CA15116}"/>
+    <hyperlink ref="F17" r:id="rId3" xr:uid="{34164FF9-7FD0-4FE4-AF51-950FFE5E8776}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>